--- a/src/test/resources/Testdata.xlsx
+++ b/src/test/resources/Testdata.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATHAN KUMAR\eclipse-workspace\Wayfair_Onlineshopping_Framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9968FBE-5C00-4B60-9826-E290527D7B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA0DDE4-C0FF-4ED4-9E90-0B87D6C7A790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="180" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="ApiDataProvider" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Username</t>
   </si>
@@ -213,6 +214,33 @@
   </si>
   <si>
     <t>LENOVO K6 POWER</t>
+  </si>
+  <si>
+    <t>Siva</t>
+  </si>
+  <si>
+    <t>NTSM</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NTSM1</t>
+  </si>
+  <si>
+    <t>NTSM2</t>
+  </si>
+  <si>
+    <t>NTSM3</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Yogash</t>
+  </si>
+  <si>
+    <t>Mathan</t>
   </si>
 </sst>
 </file>
@@ -611,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,127 +653,169 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -758,6 +828,9 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{EAC885EE-9D0F-4655-9248-E69C29C7307C}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{83D09537-CA31-4AFD-BC6A-98F9774CCD5A}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{28621446-7060-498C-B500-5AC13C83A18B}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{425051D1-F996-41D2-B5A0-DEADC34589B7}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{F092374B-3579-4D31-BA6B-60AA8162767C}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{16B5D6CB-A9C5-47D8-B75F-985C956BBEFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -767,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E99D35-F1C6-4D83-A854-9B758E586999}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,4 +1065,75 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7C5C18-83FD-446A-A832-8A255E4A5782}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Testdata.xlsx
+++ b/src/test/resources/Testdata.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATHAN KUMAR\eclipse-workspace\Wayfair_Onlineshopping_Framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA0DDE4-C0FF-4ED4-9E90-0B87D6C7A790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F18D4D4-9746-4A63-AAD7-1F810F0805B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4884" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="ApiDataProvider" sheetId="4" r:id="rId4"/>
+    <sheet name="MakemyTrip" sheetId="5" r:id="rId5"/>
+    <sheet name="BookMyShow" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3027" uniqueCount="271">
   <si>
     <t>Username</t>
   </si>
@@ -241,12 +243,838 @@
   </si>
   <si>
     <t>Mathan</t>
+  </si>
+  <si>
+    <t>FlightName</t>
+  </si>
+  <si>
+    <t>FlightCode</t>
+  </si>
+  <si>
+    <t>FlightdisTime</t>
+  </si>
+  <si>
+    <t>Flightdisplace</t>
+  </si>
+  <si>
+    <t>Flightarrtime</t>
+  </si>
+  <si>
+    <t>Flightarrplace</t>
+  </si>
+  <si>
+    <t>Akasa Air</t>
+  </si>
+  <si>
+    <t>AirAsia</t>
+  </si>
+  <si>
+    <t>Air India</t>
+  </si>
+  <si>
+    <t>Go First</t>
+  </si>
+  <si>
+    <t>19:15
+Bengaluru</t>
+  </si>
+  <si>
+    <t>21:30
+Mumbai</t>
+  </si>
+  <si>
+    <t>17:15
+Bengaluru</t>
+  </si>
+  <si>
+    <t>19:00
+Mumbai</t>
+  </si>
+  <si>
+    <t>21:05
+Bengaluru</t>
+  </si>
+  <si>
+    <t>22:45
+Mumbai</t>
+  </si>
+  <si>
+    <t>22:50
+Bengaluru</t>
+  </si>
+  <si>
+    <t>00:40
++ 1 DAY
+Mumbai</t>
+  </si>
+  <si>
+    <t>16:35
+Bengaluru</t>
+  </si>
+  <si>
+    <t>18:20
+Mumbai</t>
+  </si>
+  <si>
+    <t>19:45
+Bengaluru</t>
+  </si>
+  <si>
+    <t>21:35
+Mumbai</t>
+  </si>
+  <si>
+    <t>20:30
+Bengaluru</t>
+  </si>
+  <si>
+    <t>22:20
+Mumbai</t>
+  </si>
+  <si>
+    <t>18:50
+Bengaluru</t>
+  </si>
+  <si>
+    <t>20:30
+Mumbai</t>
+  </si>
+  <si>
+    <t>21:40
+Bengaluru</t>
+  </si>
+  <si>
+    <t>23:25
+Mumbai</t>
+  </si>
+  <si>
+    <t>21:20
+Bengaluru</t>
+  </si>
+  <si>
+    <t>23:20
+Mumbai</t>
+  </si>
+  <si>
+    <t>SpiceJet</t>
+  </si>
+  <si>
+    <t>20:25
+Bengaluru</t>
+  </si>
+  <si>
+    <t>14:20
++ 1 DAY
+Mumbai</t>
+  </si>
+  <si>
+    <t>00:05
+Mumbai</t>
+  </si>
+  <si>
+    <t>01:45
+Bengaluru</t>
+  </si>
+  <si>
+    <t>09:20
+Mumbai</t>
+  </si>
+  <si>
+    <t>11:05
+Bengaluru</t>
+  </si>
+  <si>
+    <t>13:00
+Mumbai</t>
+  </si>
+  <si>
+    <t>14:30
+Bengaluru</t>
+  </si>
+  <si>
+    <t>14:15
+Mumbai</t>
+  </si>
+  <si>
+    <t>15:45
+Bengaluru</t>
+  </si>
+  <si>
+    <t>20:50
+Bengaluru</t>
+  </si>
+  <si>
+    <t>20:25
+Mumbai</t>
+  </si>
+  <si>
+    <t>22:05
+Bengaluru</t>
+  </si>
+  <si>
+    <t>00:05
++ 1 DAY
+Bengaluru</t>
+  </si>
+  <si>
+    <t>01:30
++ 1 DAY
+Bengaluru</t>
+  </si>
+  <si>
+    <t>00:30
++ 1 DAY
+Bengaluru</t>
+  </si>
+  <si>
+    <t>15:05
+Mumbai</t>
+  </si>
+  <si>
+    <t>23:50
+Bengaluru</t>
+  </si>
+  <si>
+    <t>18:50
+Mumbai</t>
+  </si>
+  <si>
+    <t>09:35
+Mumbai</t>
+  </si>
+  <si>
+    <t>11:00
+Bengaluru</t>
+  </si>
+  <si>
+    <t>19:40
+Mumbai</t>
+  </si>
+  <si>
+    <t>01:15
+Mumbai</t>
+  </si>
+  <si>
+    <t>07:05
+Bengaluru</t>
+  </si>
+  <si>
+    <t>11:15
+Mumbai</t>
+  </si>
+  <si>
+    <t>23:30
+Mumbai</t>
+  </si>
+  <si>
+    <t>07:05
++ 1 DAY
+Bengaluru</t>
+  </si>
+  <si>
+    <t>21:10
+Mumbai</t>
+  </si>
+  <si>
+    <t>03:55
+Mumbai</t>
+  </si>
+  <si>
+    <t>08:20
+Bengaluru</t>
+  </si>
+  <si>
+    <t>06:45
+Mumbai</t>
+  </si>
+  <si>
+    <t>08:30
+Bengaluru</t>
+  </si>
+  <si>
+    <t>20:35
+Mumbai</t>
+  </si>
+  <si>
+    <t>22:15
+Bengaluru</t>
+  </si>
+  <si>
+    <t>16:40
+Mumbai</t>
+  </si>
+  <si>
+    <t>18:25
+Bengaluru</t>
+  </si>
+  <si>
+    <t>TNames</t>
+  </si>
+  <si>
+    <t>Ttimes</t>
+  </si>
+  <si>
+    <t>INOX: Garuda Mall, Magrath Road
+INFO</t>
+  </si>
+  <si>
+    <t>Swagath ShankarNag (ONYX) LED Cinema: MG Road
+INFO</t>
+  </si>
+  <si>
+    <t>Sangeet Theatre: Shivaji Nagar
+INFO</t>
+  </si>
+  <si>
+    <t>Fun Cinemas: Sigma Mall, Bengaluru
+INFO</t>
+  </si>
+  <si>
+    <t>Srinivasa 4K Dolby Atmos: S.G. Palya
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: Gold, Nexus (Formerly Forum), Koramangala
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: Nexus (Formerly Forum), Koramangala
+INFO</t>
+  </si>
+  <si>
+    <t>Gopalan Mall: Sirsi Circle
+INFO</t>
+  </si>
+  <si>
+    <t>INOX Lido: Off MG Road, Ulsoor
+INFO</t>
+  </si>
+  <si>
+    <t>Savitha Theatre:2K Dolby A/C Malleshwaram
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: The Cinema GT World, Bengaluru
+INFO</t>
+  </si>
+  <si>
+    <t>Gopalan Cinemas: Bannerghatta Road
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: Gold, Vega City, Bannerghatta Road
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: Vega City, Bannerghatta Road
+INFO</t>
+  </si>
+  <si>
+    <t>Siddalingeshwara A/C 4K 3D Dolby Digital:J.P.Nagar
+INFO</t>
+  </si>
+  <si>
+    <t>Cinepolis: Orion East Mall, Banaswadi
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: Gold, Orion Mall, Dr Rajkumar Road
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: Orion Mall, Dr Rajkumar Road
+INFO</t>
+  </si>
+  <si>
+    <t>Pushpanjali A/C Digital 2K Dolby Atmos-Sultanpalya
+INFO</t>
+  </si>
+  <si>
+    <t>Mukunda 4K Dolby Atmos: M.S.Nagar
+INFO</t>
+  </si>
+  <si>
+    <t>Cinepolis: SJR (Central Mall) Arekere, Bannergatta
+INFO</t>
+  </si>
+  <si>
+    <t>Mukta A2 Cinemas: Vaishnavi Vaibhavi, Uttarahalli
+INFO</t>
+  </si>
+  <si>
+    <t>Brundha 4K Dolby Atmos: Hongasandra DMart
+INFO</t>
+  </si>
+  <si>
+    <t>Thirumala 4K Dolby Atmos: Agara
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: Vaishnavi Sapphire Mall, Yeshwanthpur
+INFO</t>
+  </si>
+  <si>
+    <t>Vaibhav Digital 4k Dolby 7.1: Sanjaynagar
+INFO</t>
+  </si>
+  <si>
+    <t>Galaxy Paradise (Miniplex): Begur Road
+INFO</t>
+  </si>
+  <si>
+    <t>Gopalan Miniplex: Signature Mall, Old Madras Road
+INFO</t>
+  </si>
+  <si>
+    <t>Gopalan Grand Mall: Old Madras Road
+INFO</t>
+  </si>
+  <si>
+    <t>Cinepolis: Royal Meenakshi Mall
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: Soul Spirit Central Mall, Bellandur
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: MSR Elements Mall, Tanisandhra Main Road
+INFO</t>
+  </si>
+  <si>
+    <t>Sri Lakshmi A/C 4K Projection: Rammurthy Nagar
+INFO</t>
+  </si>
+  <si>
+    <t>HMT Digital 4K Cinema: Jalahalli
+INFO</t>
+  </si>
+  <si>
+    <t>Sri Lakshmi A/C 4k Dolby 7.1: Gottigere
+INFO</t>
+  </si>
+  <si>
+    <t>Bharathi Theatre (Peenya) A/C 4K Digital Cinema
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: Gold, VR Bengaluru, Whitefield Road
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: VR Bengaluru, Whitefield Road
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: Phoenix Marketcity Mall, Whitefield Road
+INFO</t>
+  </si>
+  <si>
+    <t>Venkateshwara Digital 4K Dolby Atmos A/C: Kengeri
+INFO</t>
+  </si>
+  <si>
+    <t>V Cinema (Vijayalakshmi Theatre): Garudacharpalya
+INFO</t>
+  </si>
+  <si>
+    <t>INOX: Galleria Mall, Yelahanka
+INFO</t>
+  </si>
+  <si>
+    <t>INOX: Garuda Yelahanka, Bengaluru
+INFO</t>
+  </si>
+  <si>
+    <t>Cinepolis: Nexus Shantiniketan, Bengaluru
+INFO</t>
+  </si>
+  <si>
+    <t>Ganesh Digital 2K Cinema: Yelahanka New Town
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: Aura Park Square, Bengaluru
+INFO</t>
+  </si>
+  <si>
+    <t>INOX: Nexus, Whitefield
+INFO</t>
+  </si>
+  <si>
+    <t>Kino Cinemas: Seegehalli Kadugodi, Bengaluru
+INFO</t>
+  </si>
+  <si>
+    <t>INOX:SBR Horizon, Seegehalli Whitefield-Hoskote Rd
+INFO</t>
+  </si>
+  <si>
+    <t>Sri Balaji 4K A/C Dolby Atmos: Dommasandra
+INFO</t>
+  </si>
+  <si>
+    <t>PVR: Orion Uptown, Old Madras Road, Bengaluru
+INFO</t>
+  </si>
+  <si>
+    <t>Ravi Digital 4K A/C Cinema: Sarjapura
+INFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:30 PM
+10:30 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:30 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:00 PM
+10:00 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00 PM
+4K ATMOS enabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:30 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:30 PM
+4K Dolby 7.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:35 PM
+4K Dolby 7.1
+10:00 PM
+4K Dolby 7.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:10 PM
+DOLBY 7.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:45 PM
+GOLD
+09:30 PM
+GOLD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:05 PM
+Dolby 7.1
+10:30 PM
+Dolby 7.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:55 PM
+QSC 5.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:15 PM
+4K DOLBY ATMOS
+08:45 PM
+4K DOLBY ATMOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:00 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:45 PM
+10:00 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:15 PM
+ONYX LED SCREEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:00 PM
+4K ATMOS
+10:00 PM
+4K ATMOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:05 PM
+QSC 5.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:30 PM
+07:00 PM
+09:00 PM
+10:00 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:10 PM
+09:30 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:50 PM
+GOLD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:15 PM
+Dolby 7.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:30 PM
+09:30 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:05 PM
+DOLBY 7.1
+10:30 PM
+DOLBY 7.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:15 PM
+DOLBY ATMOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:20 PM
+DOLBY 5.1
+09:45 PM
+DOLBY 5.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:30 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:45 PM
+DOLBY 7.1
+10:15 PM
+DOLBY 7.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:45 PM
+10:05 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:50 PM
+DOLBY 7.1
+10:15 PM
+DOLBY 7.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:05 PM
+GOLD 4K
+10:30 PM
+GOLD 4K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:05 PM
+Dolby 7.1
+09:30 PM
+Dolby 7.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:45 PM
+ENG
+4K DOLBY ATMOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:40 PM
+10:30 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:40 PM
+10:00 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:20 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:25 PM
+DOLBY 7.1
+10:15 PM
+DOLBY 7.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:05 PM
+4K ATMOS enabled
+10:30 PM
+4K ATMOS enabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:10 PM
+09:30 PM
+10:30 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:50 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:45 PM
+09:45 PM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00 PM
+4K Laser Projection </t>
+  </si>
+  <si>
+    <t>Balaji Digital 2K Cinema: Tavarekere
+INFO</t>
+  </si>
+  <si>
+    <t>10:10 PM</t>
+  </si>
+  <si>
+    <t>10:00 PM
+ONYX LED SCREEN</t>
+  </si>
+  <si>
+    <t>01:30 PM
+04:30 PM
+07:30 PM</t>
+  </si>
+  <si>
+    <t>07:05 PM
+Dolby 7.1</t>
+  </si>
+  <si>
+    <t>10:00 PM</t>
+  </si>
+  <si>
+    <t>12:55 PM
+QSC 5.1
+10:10 PM
+QSC 5.1</t>
+  </si>
+  <si>
+    <t>07:00 PM</t>
+  </si>
+  <si>
+    <t>09:45 PM</t>
+  </si>
+  <si>
+    <t>08:00 PM</t>
+  </si>
+  <si>
+    <t>10:15 PM
+4K ATMOS enabled</t>
+  </si>
+  <si>
+    <t>03:45 PM
+4K Dolby 7.1</t>
+  </si>
+  <si>
+    <t>10:15 PM
+4K Dolby 7.1</t>
+  </si>
+  <si>
+    <t>12:35 PM
+DOLBY 5.1
+10:30 PM
+DOLBY 5.1</t>
+  </si>
+  <si>
+    <t>08:30 PM</t>
+  </si>
+  <si>
+    <t>03:50 PM
+DOLBY 7.1
+10:25 PM
+DOLBY 7.1</t>
+  </si>
+  <si>
+    <t>10:00 PM
+4K ATMOS</t>
+  </si>
+  <si>
+    <t>09:15 PM
+DOLBY ATMOS</t>
+  </si>
+  <si>
+    <t>10:00 PM
+Dolby 7.1</t>
+  </si>
+  <si>
+    <t>10:15 PM</t>
+  </si>
+  <si>
+    <t>01:00 PM
+04:00 PM
+07:00 PM
+10:00 PM</t>
+  </si>
+  <si>
+    <t>06:45 PM</t>
+  </si>
+  <si>
+    <t>01:15 PM
+QSC 5.1
+09:50 PM
+QSC 5.1</t>
+  </si>
+  <si>
+    <t>10:30 PM
+4K Dolby 7.1</t>
+  </si>
+  <si>
+    <t>06:55 PM
+DOLBY 7.1</t>
+  </si>
+  <si>
+    <t>07:00 PM
+10:00 PM</t>
+  </si>
+  <si>
+    <t>03:45 PM
+GOLD 4K</t>
+  </si>
+  <si>
+    <t>10:10 PM
+Dolby 7.1</t>
+  </si>
+  <si>
+    <t>12:40 PM
+Dolby 7.1
+06:25 PM
+Dolby 7.1</t>
+  </si>
+  <si>
+    <t>09:30 PM
+ENG
+4K DOLBY ATMOS</t>
+  </si>
+  <si>
+    <t>05:15 PM
+4K DOLBY ATMOS
+08:45 PM
+4K DOLBY ATMOS</t>
+  </si>
+  <si>
+    <t>04:00 PM
+DOLBY 7.1
+10:30 PM
+DOLBY 7.1</t>
+  </si>
+  <si>
+    <t>11:45 AM
+4K ATMOS enabled
+06:20 PM
+4K ATMOS enabled</t>
+  </si>
+  <si>
+    <t>07:20 PM</t>
+  </si>
+  <si>
+    <t>09:30 PM</t>
+  </si>
+  <si>
+    <t>10:20 PM</t>
+  </si>
+  <si>
+    <t>10:25 PM
+4K Laser Projection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,7 +1166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -346,6 +1174,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -358,6 +1187,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -647,17 +1478,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="14.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="67.33203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="59.21875"/>
+    <col min="4" max="16384" style="1" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -726,10 +1557,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -846,18 +1677,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="26.88671875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="67.33203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="9.33203125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="67.33203125"/>
+    <col min="5" max="16384" style="1" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -868,10 +1699,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -891,10 +1722,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -907,10 +1738,10 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1018,8 +1849,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.33203125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="67.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1071,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7C5C18-83FD-446A-A832-8A255E4A5782}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1136,4 +1967,854 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC93980C-880F-4EA7-99D9-46A3DBAA3899}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.21875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.5546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.88671875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.77734375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5477AB-D0B8-49AA-A2B5-2FEE09A1D6CB}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="11" width="49.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="11" width="155.44140625"/>
+    <col min="3" max="16384" style="11" width="8.88671875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>